--- a/Project_PSSMs/Project_2/Fixed_Residue_PSSM/6_H_EN.xlsx
+++ b/Project_PSSMs/Project_2/Fixed_Residue_PSSM/6_H_EN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C2" t="n">
-        <v>1.901641513866283</v>
+        <v>1.913426578242451</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K2" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I3" t="n">
-        <v>2.685018365158193</v>
+        <v>2.793479352539816</v>
       </c>
       <c r="J3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K3" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C4" t="n">
-        <v>2.177169646561433</v>
+        <v>2.135827055261991</v>
       </c>
       <c r="D4" t="n">
-        <v>2.139690397566102</v>
+        <v>2.186909114842111</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F4" t="n">
-        <v>3.506053279633879</v>
+        <v>3.409812168208096</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H4" t="n">
-        <v>1.649543007896058</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I4" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J4" t="n">
-        <v>2.177126391890092</v>
+        <v>2.264952851064117</v>
       </c>
       <c r="K4" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C5" t="n">
-        <v>1.828996070697149</v>
+        <v>1.827521224529326</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G5" t="n">
-        <v>2.849664398261754</v>
+        <v>2.928188767594248</v>
       </c>
       <c r="H5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K5" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K6" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="7">
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.635376427180376</v>
+        <v>2.60629776041251</v>
       </c>
       <c r="C7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K7" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E8" t="n">
-        <v>1.877629411139257</v>
+        <v>1.841252592552709</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K8" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="9">
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.785195607465623</v>
+        <v>3.798099293384716</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K9" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I10" t="n">
-        <v>1.187628315280543</v>
+        <v>1.593204753560337</v>
       </c>
       <c r="J10" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K10" t="n">
-        <v>1.964418281046585</v>
+        <v>1.757494256590353</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E11" t="n">
-        <v>2.847034093107009</v>
+        <v>2.837846057495489</v>
       </c>
       <c r="F11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G11" t="n">
-        <v>2.861336352812401</v>
+        <v>2.635846464752911</v>
       </c>
       <c r="H11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K11" t="n">
-        <v>1.895721852685492</v>
+        <v>1.790316812006457</v>
       </c>
     </row>
     <row r="12">
@@ -842,34 +842,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K12" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="13">
@@ -879,34 +879,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E13" t="n">
-        <v>2.437083928145063</v>
+        <v>2.440598776187593</v>
       </c>
       <c r="F13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I13" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J13" t="n">
-        <v>1.957131506071081</v>
+        <v>2.196160784519701</v>
       </c>
       <c r="K13" t="n">
-        <v>1.911823697158753</v>
+        <v>2.04895888537495</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D14" t="n">
-        <v>1.212167107326099</v>
+        <v>1.276400564095596</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J14" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K14" t="n">
-        <v>2.127863260154152</v>
+        <v>2.196941277577776</v>
       </c>
     </row>
     <row r="15">
@@ -953,34 +953,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D15" t="n">
-        <v>1.16183454079756</v>
+        <v>1.147585216104173</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K15" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="16">
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J16" t="n">
-        <v>2.096164686406938</v>
+        <v>2.291686365335861</v>
       </c>
       <c r="K16" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="17">
@@ -1027,34 +1027,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C17" t="n">
-        <v>2.118861284956802</v>
+        <v>2.07083859264506</v>
       </c>
       <c r="D17" t="n">
-        <v>2.452718456205503</v>
+        <v>2.303058387631073</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F17" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G17" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H17" t="n">
-        <v>1.352394213581273</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I17" t="n">
-        <v>2.047149129014992</v>
+        <v>1.16683473624505</v>
       </c>
       <c r="J17" t="n">
-        <v>2.098602739402349</v>
+        <v>1.702288414521211</v>
       </c>
       <c r="K17" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="18">
@@ -1064,34 +1064,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H18" t="n">
-        <v>1.663432630296978</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I18" t="n">
-        <v>1.270052264902498</v>
+        <v>1.532509849563959</v>
       </c>
       <c r="J18" t="n">
-        <v>1.60213234559328</v>
+        <v>1.29893161202041</v>
       </c>
       <c r="K18" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="D19" t="n">
-        <v>1.553277200087772</v>
+        <v>1.631019467900668</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H19" t="n">
-        <v>1.544093994974147</v>
+        <v>4.321917473725608</v>
       </c>
       <c r="I19" t="n">
-        <v>1.517498599339526</v>
+        <v>1.441177368434952</v>
       </c>
       <c r="J19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K19" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
     <row r="20">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8522002939452999</v>
+        <v>0.9189392786280928</v>
       </c>
       <c r="D20" t="n">
-        <v>1.394920507153528</v>
+        <v>1.47326201423671</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="F20" t="n">
-        <v>3.110814427784885</v>
+        <v>3.228319672307146</v>
       </c>
       <c r="G20" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="H20" t="n">
-        <v>1.935439876379667</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9136339115974835</v>
+        <v>1.135015325135369</v>
       </c>
       <c r="J20" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K20" t="n">
-        <v>2.08501922551155</v>
+        <v>2.14949908827849</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="C21" t="n">
-        <v>1.028066901865118</v>
+        <v>1.135320731752065</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="E21" t="n">
-        <v>1.893213763547867</v>
+        <v>1.940534264069556</v>
       </c>
       <c r="F21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4659151198864</v>
+        <v>2.625955322627018</v>
       </c>
       <c r="H21" t="n">
-        <v>2.137646899379336</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="I21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="J21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
       <c r="K21" t="n">
-        <v>-19.7552934769669</v>
+        <v>-16.97746999821544</v>
       </c>
     </row>
   </sheetData>
